--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -138,18 +138,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,20 +466,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -487,10 +487,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -498,8 +498,8 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -507,8 +507,8 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -516,8 +516,8 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -525,8 +525,8 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -534,10 +534,10 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -545,8 +545,8 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -554,8 +554,8 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -563,8 +563,8 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -572,8 +572,8 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -581,31 +581,31 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
